--- a/new.xlsx
+++ b/new.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
